--- a/2 - Scaling plus Rotation/Scrotation Analysis Template.xlsx
+++ b/2 - Scaling plus Rotation/Scrotation Analysis Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\OneDrive\Desktop\EMC-Scrotation-Station\2 - Scaling plus Rotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\2 - Scaling plus Rotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A06F9-C950-47CB-8E6A-4F44F34408E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4FF502-0C6F-41A5-AA96-A4521855CB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3771" yWindow="3771" windowWidth="26332" windowHeight="13149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>Reaction Time (ms)</t>
   </si>
   <si>
-    <t>Angle of Height (°)</t>
-  </si>
-  <si>
     <t>Analysis Types</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>16 degree height</t>
+  </si>
+  <si>
+    <t>Angle of Roll (°)</t>
   </si>
 </sst>
 </file>
@@ -452,22 +452,22 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="14.4609375" customWidth="1"/>
-    <col min="3" max="3" width="19.23046875" customWidth="1"/>
-    <col min="4" max="4" width="12.23046875" customWidth="1"/>
-    <col min="5" max="5" width="12.53515625" customWidth="1"/>
-    <col min="6" max="6" width="13.765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.53515625" customWidth="1"/>
-    <col min="8" max="8" width="10.07421875" customWidth="1"/>
-    <col min="9" max="9" width="13.765625" customWidth="1"/>
-    <col min="10" max="10" width="12.765625" customWidth="1"/>
-    <col min="11" max="11" width="6.3046875" customWidth="1"/>
-    <col min="12" max="12" width="9.07421875" customWidth="1"/>
+    <col min="1" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -475,22 +475,22 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -504,10 +504,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -536,13 +536,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -557,7 +557,7 @@
     <row r="4" spans="1:10">
       <c r="C4" s="2"/>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>2</v>

--- a/2 - Scaling plus Rotation/Scrotation Analysis Template.xlsx
+++ b/2 - Scaling plus Rotation/Scrotation Analysis Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emban\Documents\GitHub\EMC-Scrotation-Station\2 - Scaling plus Rotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4FF502-0C6F-41A5-AA96-A4521855CB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7FF195-3D0E-4BA4-88F0-EB5C38DA4BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Colors</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Angle of Roll (°)</t>
+  </si>
+  <si>
+    <t>Absolute Angle of Roll (|°|)</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -522,13 +525,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
@@ -545,7 +548,7 @@
         <v>19</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
@@ -555,15 +558,17 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
         <v>6</v>
